--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,79 +394,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -546,9 +546,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -559,7 +567,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,103 +587,103 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -683,7 +691,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -691,7 +699,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -699,7 +707,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -707,7 +715,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -715,7 +723,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -723,7 +731,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -731,9 +739,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -744,7 +760,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,7 +780,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -772,95 +788,95 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -868,7 +884,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -876,7 +892,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -884,7 +900,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -892,7 +908,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -900,7 +916,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -908,7 +924,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -916,9 +932,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -929,7 +953,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +973,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -957,95 +981,95 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -1053,7 +1077,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1061,7 +1085,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1069,7 +1093,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1077,7 +1101,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1085,7 +1109,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1093,7 +1117,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1101,9 +1125,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1114,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,7 +1166,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1142,103 +1174,103 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1246,7 +1278,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1254,7 +1286,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1262,7 +1294,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1270,7 +1302,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1278,7 +1310,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1286,9 +1318,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1299,7 +1339,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1319,7 +1359,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1327,103 +1367,103 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1431,7 +1471,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1439,7 +1479,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1447,7 +1487,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1455,7 +1495,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1463,7 +1503,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1471,9 +1511,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1484,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1504,7 +1552,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1512,103 +1560,103 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1616,7 +1664,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1624,7 +1672,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1632,7 +1680,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1640,7 +1688,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1648,7 +1696,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1656,9 +1704,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1669,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1689,7 +1745,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1697,103 +1753,103 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1801,7 +1857,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1809,7 +1865,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -1817,7 +1873,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -1825,7 +1881,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -1833,7 +1889,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -1841,9 +1897,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -1854,7 +1918,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1874,7 +1938,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1882,103 +1946,103 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -1986,7 +2050,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -1994,7 +2058,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2002,7 +2066,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2010,7 +2074,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2018,7 +2082,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2026,9 +2090,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2039,7 +2111,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2059,7 +2131,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2067,111 +2139,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2179,7 +2251,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2187,7 +2259,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2195,7 +2267,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2203,7 +2275,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2211,9 +2283,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2224,7 +2304,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2244,7 +2324,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2252,111 +2332,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2364,7 +2444,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2372,7 +2452,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2380,7 +2460,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2388,7 +2468,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2396,9 +2476,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2409,7 +2497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2429,79 +2517,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -2509,7 +2597,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -2517,7 +2605,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -2525,7 +2613,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -2533,7 +2621,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -2541,7 +2629,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2549,7 +2637,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2557,7 +2645,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2565,7 +2653,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2573,7 +2661,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2581,9 +2669,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2594,7 +2690,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2614,7 +2710,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2622,111 +2718,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2734,7 +2830,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2742,7 +2838,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2750,7 +2846,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2758,7 +2854,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2766,9 +2862,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2779,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2799,7 +2903,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2807,111 +2911,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -2919,7 +3023,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -2927,7 +3031,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -2935,7 +3039,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -2943,7 +3047,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -2951,9 +3055,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -2964,7 +3076,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2984,7 +3096,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2992,111 +3104,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3104,7 +3216,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3112,7 +3224,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3120,7 +3232,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3128,7 +3240,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3136,9 +3248,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3149,7 +3269,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3169,7 +3289,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3177,111 +3297,111 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3289,7 +3409,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3297,7 +3417,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3305,7 +3425,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3313,7 +3433,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3321,9 +3441,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3334,7 +3462,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3354,7 +3482,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3362,119 +3490,119 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3482,7 +3610,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3490,7 +3618,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3498,7 +3626,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3506,9 +3634,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3519,7 +3655,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3539,79 +3675,79 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>130</v>
@@ -3619,7 +3755,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3627,7 +3763,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -3635,7 +3771,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3643,7 +3779,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -3651,7 +3787,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3659,7 +3795,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3667,7 +3803,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3675,7 +3811,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3683,7 +3819,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3691,9 +3827,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3704,7 +3848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3724,87 +3868,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3812,7 +3956,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -3820,7 +3964,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -3828,7 +3972,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -3836,7 +3980,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -3844,7 +3988,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -3852,7 +3996,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -3860,7 +4004,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -3868,7 +4012,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -3876,9 +4020,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -3889,7 +4041,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3909,87 +4061,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -3997,7 +4149,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -4005,7 +4157,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -4013,7 +4165,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -4021,7 +4173,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -4029,7 +4181,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -4037,7 +4189,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -4045,7 +4197,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -4053,7 +4205,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4061,9 +4213,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -4074,7 +4234,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4094,87 +4254,87 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>130</v>
@@ -4182,7 +4342,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -4190,7 +4350,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -4198,7 +4358,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -4206,7 +4366,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -4214,7 +4374,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -4222,7 +4382,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -4230,7 +4390,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -4238,7 +4398,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4246,9 +4406,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -4259,7 +4427,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4279,95 +4447,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -4375,7 +4543,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -4383,7 +4551,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -4391,7 +4559,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -4399,7 +4567,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -4407,7 +4575,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -4415,7 +4583,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -4423,7 +4591,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4431,9 +4599,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -4444,7 +4620,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4464,95 +4640,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -4560,7 +4736,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -4568,7 +4744,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -4576,7 +4752,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -4584,7 +4760,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -4592,7 +4768,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -4600,7 +4776,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -4608,7 +4784,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4616,9 +4792,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>
@@ -4629,7 +4813,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4649,95 +4833,95 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>130</v>
@@ -4745,7 +4929,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>130</v>
@@ -4753,7 +4937,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>130</v>
@@ -4761,7 +4945,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>130</v>
@@ -4769,7 +4953,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>130</v>
@@ -4777,7 +4961,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>130</v>
@@ -4785,7 +4969,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>130</v>
@@ -4793,7 +4977,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>130</v>
@@ -4801,9 +4985,17 @@
     </row>
     <row r="21">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wom_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -855,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -863,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -871,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1193,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1225,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1233,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1257,7 +1257,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1265,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1386,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1410,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1426,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1434,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1442,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1450,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -1458,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1595,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1611,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1619,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1635,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1643,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -1659,7 +1659,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1764,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1780,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1804,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1812,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1820,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1828,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1836,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1844,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -1852,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1965,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2005,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -2021,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -2029,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -2037,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -2045,7 +2045,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2158,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2174,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2206,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -2214,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2222,7 +2222,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2230,7 +2230,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2238,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2343,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2359,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2367,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2391,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -2407,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2415,7 +2415,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2423,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2431,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -2544,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -2552,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -2560,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
@@ -2568,7 +2568,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -2576,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -2584,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2729,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2737,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2745,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2753,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2785,7 +2785,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2793,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2801,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -2809,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -2922,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -2930,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -2938,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -2946,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -2986,7 +2986,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2994,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -3010,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -3115,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -3123,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -3131,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -3139,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -3171,7 +3171,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -3187,7 +3187,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -3195,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -3308,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -3316,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -3324,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -3332,7 +3332,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -3356,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -3372,7 +3372,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -3380,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -3388,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -3404,7 +3404,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -3501,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -3509,7 +3509,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -3517,7 +3517,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -3541,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -3549,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -3557,7 +3557,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -3565,7 +3565,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -3573,7 +3573,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -3581,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -3589,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -3597,7 +3597,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -3694,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -3702,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -3710,7 +3710,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -3726,7 +3726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -3734,7 +3734,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -3742,7 +3742,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -3895,7 +3895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -3903,7 +3903,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -3919,7 +3919,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -3927,7 +3927,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -3935,7 +3935,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -3943,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -4088,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -4096,7 +4096,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -4104,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -4128,7 +4128,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -4136,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -4273,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -4281,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -4289,7 +4289,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -4297,7 +4297,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -4321,7 +4321,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -4329,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -4466,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -4474,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -4482,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -4490,7 +4490,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -4506,7 +4506,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -4667,7 +4667,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -4675,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -4683,7 +4683,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -4691,7 +4691,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -4699,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -4707,7 +4707,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -4715,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -4723,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -4844,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -4852,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -4860,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -4868,7 +4868,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -4876,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -4884,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -4900,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -4908,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -4916,7 +4916,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -4924,7 +4924,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
